--- a/양식모음/정보테이블양식/테이블명세-양식.xlsx
+++ b/양식모음/정보테이블양식/테이블명세-양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oraclexe\DBMS\종다리\정보테이블양식\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\양식모음\정보테이블양식\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -97,62 +97,11 @@
     <t>오라클형식</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <t>tbl_books</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>책제목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCODE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACODE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRICE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGES</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(13)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(125)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,6 +1016,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1095,9 +1047,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1487,7 +1436,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2142,21 +2091,19 @@
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2165,35 +2112,33 @@
       <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2234,12 +2179,8 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2253,12 +2194,8 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -2272,12 +2209,8 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2291,12 +2224,8 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2310,12 +2239,8 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2329,12 +2254,8 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2348,12 +2269,8 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
